--- a/project_week/Schedule_ProjectWeeks_2024_25_CDF_DAcunto_Doerfler_Goldbach_Hojjat.xlsx
+++ b/project_week/Schedule_ProjectWeeks_2024_25_CDF_DAcunto_Doerfler_Goldbach_Hojjat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\MAIN_C\02_Research\03_Grants\30_ProjektWoche_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61033865-7895-4F58-AC76-8763E7C2B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C86CD1-87A0-48FB-B604-EF0DA7B895AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{80C8863D-89F3-447A-9BB5-8FF79D4CD31F}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>24.03 - 28.03</t>
-  </si>
-  <si>
     <t>Exercise</t>
   </si>
   <si>
@@ -135,13 +132,16 @@
   </si>
   <si>
     <t>EX7</t>
+  </si>
+  <si>
+    <t>24.03 - 28.03.2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +177,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -362,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,21 +372,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,10 +399,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,16 +411,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,9 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,13 +435,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -811,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596C9C3B-F252-470E-94B1-76C24BE6A96B}">
-  <dimension ref="A2:U17"/>
+  <dimension ref="A2:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -828,290 +809,286 @@
     <col min="22" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B2" s="27"/>
-      <c r="C2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
+    <row r="2" spans="1:21" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="21"/>
+      <c r="C2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="Q3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="32"/>
-      <c r="Q4" s="28"/>
-      <c r="U4" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="6.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="31"/>
-      <c r="E5" s="15"/>
-      <c r="Q5" s="28"/>
-      <c r="U5" s="28"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="E5" s="12"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="11"/>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="22"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="31"/>
-      <c r="E8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="22"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="22"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="11"/>
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="Q11" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="5"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="22"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="22"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="22"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="E15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="U15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B14" s="27"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="U14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B15" s="27"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
